--- a/biology/Botanique/Alpinia_cumingii/Alpinia_cumingii.xlsx
+++ b/biology/Botanique/Alpinia_cumingii/Alpinia_cumingii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alpinia cumingii est une espèce de plantes à fleurs du genre Alpinia de la famille des Zingiberaceae. C'est une plante herbacée vivace originaire de l'île de Luçon aux Philippines.
-En 1904, Karl Moritz Schumann, botaniste allemand, en fait la description en latin dans le journal botanique Das Pflanzenreich édité par le botaniste allemand « Adolf Engler ». Volume IV. 46, Cahier (Heft) 20 de 1904, page 315[1].
+En 1904, Karl Moritz Schumann, botaniste allemand, en fait la description en latin dans le journal botanique Das Pflanzenreich édité par le botaniste allemand « Adolf Engler ». Volume IV. 46, Cahier (Heft) 20 de 1904, page 315.
 Il dédie cet Alpinia à Hugh Cuming, naturaliste britannique, qui l'a découverte dans la province de Albay sur l'île de Luçon lors de son dernier grand voyage, aux Philippines de (1836-1839).
 </t>
         </is>
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -540,6 +554,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,6 +582,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -591,7 +609,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Languas cumingii (K.Schum.) Merr., (1923).</t>
         </is>
